--- a/August/Others/Price List Update_10.08.2018.xlsx
+++ b/August/Others/Price List Update_10.08.2018.xlsx
@@ -345,7 +345,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> Symphony Price List                           Date:08.08.19</t>
+    <t xml:space="preserve"> Symphony Price List                           Date:18.08.19</t>
   </si>
 </sst>
 </file>
@@ -640,6 +640,9 @@
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -662,9 +665,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -977,7 +977,7 @@
   <dimension ref="A1:J84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:J45"/>
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -996,60 +996,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
     </row>
     <row r="3" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
     </row>
     <row r="5" spans="1:10" s="18" customFormat="1" ht="15.75">
       <c r="A5" s="17" t="s">
@@ -1589,7 +1589,7 @@
         <v>20</v>
       </c>
       <c r="E24" s="15"/>
-      <c r="F24" s="47" t="s">
+      <c r="F24" s="39" t="s">
         <v>51</v>
       </c>
       <c r="G24" s="32">
@@ -2203,60 +2203,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="46.5">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
     </row>
     <row r="2" spans="1:10" ht="18.75">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
     </row>
     <row r="3" spans="1:10" ht="15.75">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
     </row>
     <row r="4" spans="1:10" ht="19.5">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:10" ht="37.5">
       <c r="A5" s="1" t="s">

--- a/August/Others/Price List Update_10.08.2018.xlsx
+++ b/August/Others/Price List Update_10.08.2018.xlsx
@@ -345,7 +345,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> Symphony Price List                           Date:18.08.19</t>
+    <t xml:space="preserve"> Symphony Price List                           Date:21.08.19</t>
   </si>
 </sst>
 </file>
@@ -976,8 +976,8 @@
   </sheetPr>
   <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
